--- a/数据整理/stocks/A股/深证主板/002327-富安娜.xlsx
+++ b/数据整理/stocks/A股/深证主板/002327-富安娜.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>008269</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>大成睿享混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9980</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>090007</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成策略回报混合</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>63.13</t>
+          <t>32.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9612</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.88</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9612</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>17.62</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5956</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>090013</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成竞争优势混合</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>61.32</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3480</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>090007</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>大成策略回报混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>8.19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>63.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2514</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>090013</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>大成竞争优势混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>61.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008269</t>
+          <t>008270</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成睿享混合A</t>
+          <t>大成睿享混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>86.51</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>10.05</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008270</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大成睿享混合C</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>86.51</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.05</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,26 +900,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010744</t>
+          <t>166005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信灵动价值混合A</t>
+          <t>中欧价值发现混合 -A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>47.66</t>
+          <t>46.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3781</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -818,25 +938,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010745</t>
+          <t>010744</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信灵动价值混合C</t>
+          <t>工银瑞信灵动价值混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>40.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>47.66</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.98</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8035</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>090007</t>
+          <t>008269</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成策略回报混合</t>
+          <t>大成睿享混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>67.28</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7133</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>090013</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成竞争优势混合</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>67.57</t>
+          <t>17.56</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5847</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3445</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>090007</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>大成策略回报混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>67.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2763</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>090013</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>大成竞争优势混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>67.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>166005</t>
+          <t>008270</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -A</t>
+          <t>大成睿享混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>010745</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>工银瑞信灵动价值混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>47.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008269</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大成睿享混合A</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>82.62</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9.99</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008270</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大成睿享混合C</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>82.62</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9.99</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002327-富安娜.xlsx
+++ b/数据整理/stocks/A股/深证主板/002327-富安娜.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1315,4 +1316,934 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2540</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7529</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6436</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5137</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2328</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>481013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011475</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002327-富安娜.xlsx
+++ b/数据整理/stocks/A股/深证主板/002327-富安娜.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2246,4 +2247,894 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4065</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6923</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6882</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2511</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>61.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>481013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>65.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011475</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>65.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002327-富安娜.xlsx
+++ b/数据整理/stocks/A股/深证主板/002327-富安娜.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3137,4 +3138,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002327-富安娜.xlsx
+++ b/数据整理/stocks/A股/深证主板/002327-富安娜.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3146,7 +3147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3157,17 +3158,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3177,14 +3198,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.01</v>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4809</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3193,14 +3236,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.27</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5354</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3209,14 +3274,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.41</v>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7763</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3225,13 +3312,683 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3899</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>58.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2802</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>481013</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011475</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002327-富安娜.xlsx
+++ b/数据整理/stocks/A股/深证主板/002327-富安娜.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3887,7 +3888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3898,17 +3899,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3918,14 +3939,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.42</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4144</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3934,14 +3977,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.01</v>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3950,14 +4015,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.27</v>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7540</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3966,14 +4053,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.41</v>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7028</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3982,13 +4091,547 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5730</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5395</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3568</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>481013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>65.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011475</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>61.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002327-富安娜.xlsx
+++ b/数据整理/stocks/A股/深证主板/002327-富安娜.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4514,7 +4515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4525,17 +4526,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4545,14 +4566,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.43</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5534</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4561,14 +4604,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.42</v>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8580</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4577,14 +4642,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.01</v>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7226</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4593,14 +4680,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.27</v>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3847</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -4609,14 +4718,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.41</v>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -4625,13 +4756,411 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>481013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011475</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002327-富安娜.xlsx
+++ b/数据整理/stocks/A股/深证主板/002327-富安娜.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>4.16</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>6.43</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>7.42</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>5.01</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>4.27</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>4.41</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.4</v>
       </c>
     </row>
@@ -600,6 +617,860 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0195</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6560</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5650</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3133</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2681</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>481013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011475</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1111,7 +1982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1737,7 +2608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2477,7 +3348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3367,7 +4238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4297,7 +5168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4771,7 +5642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002327-富安娜.xlsx
+++ b/数据整理/stocks/A股/深证主板/002327-富安娜.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>3.77</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>4.16</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>6.43</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>7.42</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>5.01</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>4.27</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>4.41</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>4.4</v>
       </c>
     </row>
@@ -616,7 +633,993 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9980</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9612</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9612</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5956</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3480</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>63.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2514</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>61.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8910</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6753</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5650</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3362</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2440</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>481013</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011475</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1470,7 +2473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1982,7 +2985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2608,7 +3611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3348,7 +4351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4238,7 +5241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5168,7 +6171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5640,402 +6643,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008269</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成睿享混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.93</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9980</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001882</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -E</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>32.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9612</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>166005</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>32.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9612</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001810</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>17.62</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5956</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004232</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3480</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>090007</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成策略回报混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>63.13</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2514</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>090013</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>61.32</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1719</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008270</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成睿享混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>86.51</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>10.05</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0653</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0487</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>